--- a/biology/Botanique/Râpe_à_pommes_de_terre/Râpe_à_pommes_de_terre.xlsx
+++ b/biology/Botanique/Râpe_à_pommes_de_terre/Râpe_à_pommes_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A2pe_%C3%A0_pommes_de_terre</t>
+          <t>Râpe_à_pommes_de_terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La râpe à pommes de terre est un ustensile de cuisine de la cuisine régionale des pays d'Europe centrale.
 Ce type de râpe est utilisé pour écraser mécaniquement les pommes de terre crues dans la perspective de la préparation des plats tels que les boulettes de pommes de terre ou les galettes de pommes de terre.
